--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_16-45.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_16-45.xlsx
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>3:8</t>
+  </si>
+  <si>
+    <t>OVUNHIPITA 75MCG 28 TABLETS</t>
   </si>
   <si>
     <t>PANTOPRAZOLE 40MG 14 TAB.</t>
@@ -1729,17 +1732,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1755,17 +1758,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1781,17 +1784,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>56.399999999999999</v>
+        <v>75</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1799,7 +1802,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1807,13 +1810,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>23</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1833,17 +1836,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>65.75</v>
+        <v>23</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1865,7 +1868,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>59</v>
+        <v>65.75</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1885,17 +1888,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1911,17 +1914,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1937,17 +1940,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1969,7 +1972,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1989,13 +1992,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2015,13 +2018,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>2.5</v>
+        <v>35</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2033,7 +2036,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2041,13 +2044,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>34</v>
+        <v>2.5</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2067,17 +2070,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2093,17 +2096,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2111,7 +2114,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2119,17 +2122,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2137,7 +2140,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2145,13 +2148,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2171,13 +2174,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2189,7 +2192,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2197,13 +2200,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2215,7 +2218,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2223,13 +2226,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2249,13 +2252,13 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>19.199999999999999</v>
+        <v>35</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
@@ -2267,7 +2270,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2275,13 +2278,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2301,51 +2304,77 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="60" ht="26.25" customHeight="1">
-      <c r="K60" s="10">
-        <v>3396.54</v>
-      </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="11">
+    <row r="60" ht="25.5" customHeight="1">
+      <c r="A60" s="6">
+        <v>57</v>
+      </c>
+      <c t="s" r="B60" s="7">
         <v>90</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c t="s" r="F61" s="12">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c t="s" r="H60" s="8">
+        <v>38</v>
+      </c>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="9">
+        <v>30</v>
+      </c>
+      <c r="M60" s="9"/>
+      <c t="s" r="N60" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="K61" s="10">
+        <v>3457.54</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="11">
         <v>91</v>
       </c>
-      <c r="G61" s="12"/>
-      <c r="H61" s="13"/>
-      <c t="s" r="I61" s="14">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c t="s" r="F62" s="12">
         <v>92</v>
       </c>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="13"/>
+      <c t="s" r="I62" s="14">
+        <v>93</v>
+      </c>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="182">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2521,10 +2550,13 @@
     <mergeCell ref="B59:G59"/>
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="I62:N62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
